--- a/download/template.xlsx
+++ b/download/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlock1/Python/parts-sales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlock1/Python/parts-sales/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7EF02D-D005-CF42-AF47-4EF5E8A68B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F933BC3-A1FD-9147-BCD9-28EBE76DA0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5F53BCCA-F7B2-954D-9255-8294F2B4BB62}"/>
   </bookViews>
@@ -27,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Date</t>
+    <t>date</t>
   </si>
   <si>
-    <t>Parts</t>
+    <t>parts</t>
   </si>
   <si>
-    <t>Item count</t>
+    <t>car_model</t>
   </si>
   <si>
-    <t>Car model</t>
+    <t>item_count</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -408,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
